--- a/biology/Microbiologie/EN_14476/EN_14476.xlsx
+++ b/biology/Microbiologie/EN_14476/EN_14476.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La norme EN 14476 est une norme européenne décrivant des actions de destructions des micro-organismes dans un milieu.
 </t>
@@ -511,7 +523,9 @@
           <t>Détails</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Évaluation de l’activité virucide
 Réduction microbienne supérieure à 10^4 sur Poliovirus et Adenovirus
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">http://www.phagogene.fr/les-normes/
  Portail de l’Europe   Portail de la microbiologie                    </t>
